--- a/biology/Botanique/Juglans_major/Juglans_major.xlsx
+++ b/biology/Botanique/Juglans_major/Juglans_major.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Noyer noir d'Arizona (Juglans major) est une espèce de noyer originaire du Mexique et du sud-ouest des États-Unis.
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce noyer est présent dans certaines régions du Mexique et dans les États américains du Texas, de l'Oklahoma, du Nouveau-Mexique, de l'Arizona et de l'Utah à des altitudes comprises entre 300 et 2 100 mètres[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce noyer est présent dans certaines régions du Mexique et dans les États américains du Texas, de l'Oklahoma, du Nouveau-Mexique, de l'Arizona et de l'Utah à des altitudes comprises entre 300 et 2 100 mètres.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre monoïque atteint en général une taille de quinze mètres[3] pour un tronc de soixante centimètres. La feuille qui peut atteindre une trentaine de centimètres est composée de neuf à quinze folioles[4]. La noix de forme ronde (2 à 3 cm de diamètre) a une épaisse coquille avec des rainures profondes qui renferme un cerneau comestible gras[4].
-Ce noyer peut s'hybrider avec Juglans microcarpa[5],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre monoïque atteint en général une taille de quinze mètres pour un tronc de soixante centimètres. La feuille qui peut atteindre une trentaine de centimètres est composée de neuf à quinze folioles. La noix de forme ronde (2 à 3 cm de diamètre) a une épaisse coquille avec des rainures profondes qui renferme un cerneau comestible gras.
+Ce noyer peut s'hybrider avec Juglans microcarpa,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En plus de la récolte de ses noix pour la consommation, le bois de l'arbre peut être utilisé dans la menuiserie ou comme bois de chauffage[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus de la récolte de ses noix pour la consommation, le bois de l'arbre peut être utilisé dans la menuiserie ou comme bois de chauffage. 
 </t>
         </is>
       </c>
